--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/东方嘉盛-00028.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/东方嘉盛-00028.xlsx
@@ -231,13 +231,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -285,7 +285,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -299,11 +299,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,9 +314,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,16 +345,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,52 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +563,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,43 +677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,61 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,37 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,46 +781,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,16 +828,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,145 +870,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1025,7 +1025,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1043,7 +1043,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,10 +1995,10 @@
             <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>34.68</v>
+            <v>34.55</v>
           </cell>
           <cell r="S12">
-            <v>620.150919999999</v>
+            <v>646.15092</v>
           </cell>
         </row>
         <row r="12">
@@ -2705,6 +2705,60 @@
         <row r="22">
           <cell r="A22" t="str">
             <v>JG_0000019</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>JH_00017</v>
+          </cell>
+          <cell r="C22">
+            <v>600085</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E22">
+            <v>44546</v>
+          </cell>
+          <cell r="F22">
+            <v>38.9</v>
+          </cell>
+          <cell r="G22">
+            <v>200</v>
+          </cell>
+          <cell r="H22">
+            <v>5</v>
+          </cell>
+          <cell r="I22">
+            <v>0.1556</v>
+          </cell>
+          <cell r="J22">
+            <v>7785.1556</v>
+          </cell>
+          <cell r="K22">
+            <v>38.95</v>
+          </cell>
+          <cell r="L22">
+            <v>37.47</v>
+          </cell>
+          <cell r="M22">
+            <v>40.39</v>
+          </cell>
+          <cell r="N22">
+            <v>32.08</v>
+          </cell>
+          <cell r="O22">
+            <v>8.31</v>
+          </cell>
+          <cell r="P22">
+            <v>41.56</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.0337837837837866</v>
+          </cell>
+          <cell r="R22">
+            <v>37</v>
+          </cell>
+          <cell r="S22">
+            <v>390.1556</v>
           </cell>
         </row>
       </sheetData>
@@ -2976,11 +3030,11 @@
   <dimension ref="A1:AG476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6:AG7"/>
+      <selection pane="bottomRight" activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3355,8 +3409,8 @@
         <v>26</v>
       </c>
       <c r="AG6" s="4">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>-1.83</v>
+        <f>($AF6-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*100</f>
+        <v>-183</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -3445,8 +3499,8 @@
         <v>26</v>
       </c>
       <c r="AG7" s="4">
-        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
-        <v>-1.83</v>
+        <f>($AF7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*100</f>
+        <v>-183</v>
       </c>
     </row>
     <row r="8" spans="1:32">
